--- a/DataSnippet.xlsx
+++ b/DataSnippet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kareem/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100995420\Desktop\Python Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300CCCF8-DEE8-064A-B132-84B401722B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5455816-CD18-43E7-9DA7-C18054AB0D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{781531C4-9D66-49A9-8CB0-3DD10E335DD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{781531C4-9D66-49A9-8CB0-3DD10E335DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="ChatGPTData" sheetId="1" r:id="rId1"/>
@@ -536,128 +536,103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,2305 +969,1604 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE23D367-C68B-4959-AC3C-19463BB62BE6}">
   <dimension ref="A1:BD20"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="51" width="36" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.5546875" customWidth="1"/>
+    <col min="48" max="49" width="12" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.33203125" customWidth="1"/>
+    <col min="53" max="53" width="13.88671875" customWidth="1"/>
+    <col min="54" max="54" width="11.5546875" customWidth="1"/>
+    <col min="55" max="55" width="10.6640625" customWidth="1"/>
+    <col min="56" max="56" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
     </row>
-    <row r="2" spans="1:56" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:56" s="6" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="9" t="s">
+      <c r="AT2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AU2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AV2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AW2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AX2" s="11" t="s">
+      <c r="AX2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="AY2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
     </row>
-    <row r="3" spans="1:56" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>-203.60599999999999</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>1523.29</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>-3196.413</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>2474.4549999999999</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>3.8553259999999998</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <f>$J$5/1000</f>
         <v>0.48625300000000005</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <f>B3+(C3*G3)+(D3*G3^2)+(E3*G3^3)+(F3/G3^2)</f>
         <v>82.127334509325792</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="14">
         <f>MAX(G16:G672715)</f>
         <v>486.25700000000001</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="16">
         <f>SUM(O17,R17,U17,X17,AA17,AD17)</f>
         <v>197.69656096393518</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="17">
         <v>6</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="17">
         <v>6</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="17">
         <f>(M3/3.281)-(N3/39.37)</f>
         <v>1.6763104541143554</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="17">
         <f>PI()*((O3/2)^2)</f>
         <v>2.2069819855913817</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3" s="18">
         <f>AVERAGE(AM:AM)</f>
         <v>0.87856879656877074</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="21" t="s">
+      <c r="AT3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AU3" s="22">
+      <c r="AU3" s="20">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="AV3" s="22">
+      <c r="AV3" s="20">
         <v>293.14999999999998</v>
       </c>
-      <c r="AW3" s="22">
+      <c r="AW3" s="20">
         <v>240</v>
       </c>
-      <c r="AX3" s="23">
+      <c r="AX3" s="21">
         <f>(0.555*AV3)+AW3</f>
         <v>402.69825000000003</v>
       </c>
-      <c r="AY3" s="23">
+      <c r="AY3" s="21">
         <f>(0.555*G17)+AW3</f>
         <v>509.86375500000003</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="AZ3" t="s">
         <v>30</v>
       </c>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3" t="s">
+      <c r="BB3" t="s">
         <v>31</v>
       </c>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
     </row>
-    <row r="4" spans="1:56" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>30.091999999999999</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>6.8325139999999998</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>6.7934349999999997</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>-2.5344799999999998</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>8.2139000000000004E-2</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <f t="shared" ref="G4:G8" si="0">$J$5/1000</f>
         <v>0.48625300000000005</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <f>B4+C4*G4+D4*G4^2+E4*G4^3+F4/G4^2</f>
         <v>35.076588918280869</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <f>MIN(G17:G672715)</f>
         <v>486.24099999999999</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="16">
         <f>MAX(AE:AE)</f>
         <v>197.7135451133729</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="17">
         <v>1</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="26" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4">
         <v>0.40639999999999998</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="21" t="s">
+      <c r="AT4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AU4" s="22">
+      <c r="AU4" s="20">
         <v>1.72E-2</v>
       </c>
-      <c r="AV4" s="22">
+      <c r="AV4" s="20">
         <v>288.14999999999998</v>
       </c>
-      <c r="AW4" s="22">
+      <c r="AW4" s="20">
         <v>118</v>
       </c>
-      <c r="AX4" s="23">
+      <c r="AX4" s="21">
         <f t="shared" ref="AX4:AX8" si="1">(0.555*AV4)+AW4</f>
         <v>277.92325</v>
       </c>
-      <c r="AY4" s="23">
+      <c r="AY4" s="21">
         <f t="shared" ref="AY4:AY8" si="2">(0.555*AV4)+AW4</f>
         <v>277.92325</v>
       </c>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
     </row>
-    <row r="5" spans="1:56" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:56" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>28.986409999999999</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>1.8539779999999999</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>-9.6474580000000003</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>16.635370000000002</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>1.17E-4</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
         <v>0.48625300000000005</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <f t="shared" ref="H5:H8" si="3">B5+C5*G5+D5*G5^2+E5*G5^3+F5/G5^2</f>
         <v>29.519921966697137</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <f>AVERAGE(G17:G672715)</f>
         <v>486.25300000000004</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="16">
         <f>MIN(AE:AE)</f>
         <v>197.25154292265009</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="17">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="20">
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="18">
         <f>MAX(AM:AM)</f>
         <v>0.87960112264566437</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="21" t="s">
+      <c r="AT5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AU5" s="23">
+      <c r="AU5" s="21">
         <v>1.002</v>
       </c>
-      <c r="AV5" s="22">
+      <c r="AV5" s="20">
         <v>273.14999999999998</v>
       </c>
-      <c r="AW5" s="22">
+      <c r="AW5" s="20">
         <v>300</v>
       </c>
-      <c r="AX5" s="23">
+      <c r="AX5" s="21">
         <f t="shared" si="1"/>
         <v>451.59825000000001</v>
       </c>
-      <c r="AY5" s="23">
+      <c r="AY5" s="21">
         <f t="shared" si="2"/>
         <v>451.59825000000001</v>
       </c>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
     </row>
-    <row r="6" spans="1:56" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>31.322340000000001</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>-20.235309999999998</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>57.866439999999997</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>-36.506239999999998</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>-7.3740000000000003E-3</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
         <v>0.48625300000000005</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <f t="shared" si="3"/>
         <v>30.936582977578325</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="14">
         <v>486.24099999999999</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="16">
         <f>AVERAGE(AE:AE)</f>
         <v>197.47829798065206</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="17">
         <f>$J$7+273.15</f>
         <v>573.15</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="26" t="s">
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="21" t="s">
+      <c r="AT6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AU6" s="22">
+      <c r="AU6" s="20">
         <v>0.17929999999999999</v>
       </c>
-      <c r="AV6" s="22">
+      <c r="AV6" s="20">
         <v>273.14999999999998</v>
       </c>
-      <c r="AW6" s="22">
+      <c r="AW6" s="20">
         <v>170</v>
       </c>
-      <c r="AX6" s="23">
+      <c r="AX6" s="21">
         <f t="shared" si="1"/>
         <v>321.59825000000001</v>
       </c>
-      <c r="AY6" s="23">
+      <c r="AY6" s="21">
         <f t="shared" si="2"/>
         <v>321.59825000000001</v>
       </c>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
     </row>
-    <row r="7" spans="1:56" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>25.567589999999999</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>6.0961299999999996</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>4.0546559999999996</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>-2.6713010000000001</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>0.131021</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
         <v>0.48625300000000005</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <f t="shared" si="3"/>
         <v>29.737557200858113</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <v>300</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="25" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="17">
         <f>AVERAGE(AL:AL)</f>
         <v>1.9389855071299764</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="20">
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="18">
         <f>MIN(AM:AM)</f>
         <v>0.8775457366811289</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="21" t="s">
+      <c r="AT7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AU7" s="22">
+      <c r="AU7" s="20">
         <v>1.7809999999999999E-2</v>
       </c>
-      <c r="AV7" s="22">
+      <c r="AV7" s="20">
         <v>300.55</v>
       </c>
-      <c r="AW7" s="22">
+      <c r="AW7" s="20">
         <v>111</v>
       </c>
-      <c r="AX7" s="23">
+      <c r="AX7" s="21">
         <f t="shared" si="1"/>
         <v>277.80525</v>
       </c>
-      <c r="AY7" s="23">
+      <c r="AY7" s="21">
         <f t="shared" si="2"/>
         <v>277.80525</v>
       </c>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:56" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>30.032350000000001</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>8.7729719999999993</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>-3.9881329999999999</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>0.78831300000000004</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>-0.74159900000000001</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
         <v>0.48625300000000005</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <f t="shared" si="3"/>
         <v>30.309410099438381</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="14">
         <f>J6-J7</f>
         <v>186.24099999999999</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="21" t="s">
+      <c r="K8" s="22"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="18"/>
+      <c r="AT8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AU8" s="22">
+      <c r="AU8" s="20">
         <v>2.018E-2</v>
       </c>
-      <c r="AV8" s="22">
+      <c r="AV8" s="20">
         <v>292.25</v>
       </c>
-      <c r="AW8" s="22">
+      <c r="AW8" s="20">
         <v>127</v>
       </c>
-      <c r="AX8" s="23">
+      <c r="AX8" s="21">
         <f t="shared" si="1"/>
         <v>289.19875000000002</v>
       </c>
-      <c r="AY8" s="23">
+      <c r="AY8" s="21">
         <f t="shared" si="2"/>
         <v>289.19875000000002</v>
       </c>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
+      <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:56" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:56" s="37" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="N16" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="P16" s="30" t="s">
+      <c r="P16" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="Q16" s="31" t="s">
+      <c r="Q16" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="R16" s="32" t="s">
+      <c r="R16" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="S16" s="30" t="s">
+      <c r="S16" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="T16" s="31" t="s">
+      <c r="T16" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="U16" s="32" t="s">
+      <c r="U16" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="V16" s="30" t="s">
+      <c r="V16" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="W16" s="31" t="s">
+      <c r="W16" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="X16" s="32" t="s">
+      <c r="X16" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="Y16" s="30" t="s">
+      <c r="Y16" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="Z16" s="31" t="s">
+      <c r="Z16" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AA16" s="32" t="s">
+      <c r="AA16" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="AB16" s="30" t="s">
+      <c r="AB16" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="AC16" s="31" t="s">
+      <c r="AC16" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="AD16" s="32" t="s">
+      <c r="AD16" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="AE16" s="5" t="s">
+      <c r="AE16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF16" s="33" t="s">
+      <c r="AF16" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="AG16" s="33" t="s">
+      <c r="AG16" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="AH16" s="33" t="s">
+      <c r="AH16" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="AI16" s="33" t="s">
+      <c r="AI16" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="AJ16" s="33" t="s">
+      <c r="AJ16" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="AK16" s="33" t="s">
+      <c r="AK16" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="AL16" s="34" t="s">
+      <c r="AL16" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="AM16" s="35" t="s">
+      <c r="AM16" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="AN16" s="36" t="s">
+      <c r="AN16" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AO16" s="36" t="s">
+      <c r="AO16" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="AP16" s="36" t="s">
+      <c r="AP16" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="AQ16" s="36" t="s">
+      <c r="AQ16" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="AR16" s="36" t="s">
+      <c r="AR16" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="AS16" s="36" t="s">
+      <c r="AS16" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="AT16" s="37" t="s">
+      <c r="AT16" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="AU16" s="37" t="s">
+      <c r="AU16" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AV16" s="37" t="s">
+      <c r="AV16" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="AW16" s="37" t="s">
+      <c r="AW16" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="AX16" s="37" t="s">
+      <c r="AX16" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="AY16" s="37" t="s">
+      <c r="AY16" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="AZ16" s="38" t="s">
+      <c r="AZ16" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="BA16" s="37" t="s">
+      <c r="BA16" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="BB16" s="34" t="s">
+      <c r="BB16" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="BC16" s="33" t="s">
+      <c r="BC16" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="BD16" s="33" t="s">
+      <c r="BD16" s="31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A17" s="39">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
         <f>C17+D17</f>
         <v>45416.474861111114</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="39">
         <f>DATE(RIGHT(B17,4),MID(B17,4,2),LEFT(B17,2))</f>
         <v>45416</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>0.47486111111111112</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>101.42400000000001</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>486.24099999999999</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
         <f>(F17+E17)/3600</f>
         <v>2.8173333333333335E-2</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17">
         <f>((101.325)*(H17)*1000)/((8.314)*(273.15))</f>
         <v>1.2570241488534568</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17">
         <f>(G17+273.15)-($J$7+273.15)</f>
         <v>186.24099999999999</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17">
         <f>G17-$J$7</f>
         <v>186.24099999999999</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17">
         <f>(K17)*2.22*(K17)</f>
         <v>77002.276379819989</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17">
         <f t="shared" ref="M17:M20" si="4">(1.03552318948896)*(I17)</f>
         <v>1.3016776558853769</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17">
         <f>M17*(44.01)</f>
         <v>57.286833635515436</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17">
         <f>(K17)*(N17/1000)*(1.2135)</f>
         <v>12.947022241706447</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17">
         <f t="shared" ref="P17:P20" si="5">(3.76603433650984)*(I17)</f>
         <v>4.7339961064041747</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17">
         <f>(P17)*(18.01528)</f>
         <v>85.284265375781004</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17">
         <f t="shared" ref="R17:R20" si="6">(K17)*(Q17/1000)*(1.996)</f>
         <v>31.703320028230252</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17">
         <f t="shared" ref="S17:S20" si="7">(17.440390559814)*(I17)</f>
         <v>21.922992099122055</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17">
         <f>(S17)*(28.0134)</f>
         <v>614.13754686954576</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17">
         <f t="shared" ref="U17:U20" si="8">(K17)*(T17/1000)*(1.158)</f>
         <v>132.44925022344296</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17">
         <f t="shared" ref="V17:V20" si="9">(2.51572679168908)*(I17)</f>
         <v>3.1623293290708032</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17">
         <f>(V17)*(31.999)</f>
         <v>101.19137620093663</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17">
         <f t="shared" ref="X17:X20" si="10">(K17)*(W17/1000)*(1.087552941)</f>
         <v>20.496004341045552</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17">
         <f>(0.000976810511041857)*(I17)</f>
         <v>1.2278744012335005E-3</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17">
         <f>(Y17)*(28.01)</f>
         <v>3.4392761978550353E-2</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17">
         <f t="shared" ref="AA17:AA20" si="11">(K17)*(Z17/1000)*(1.23723875)</f>
         <v>7.9249378040656751E-3</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB17">
         <f t="shared" ref="AB17:AB20" si="12">(0.011187614171608)*(I17)</f>
         <v>1.4063101181766418E-2</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AC17">
         <f>(AB17)*(30.0061)</f>
         <v>0.42197882037020129</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD17">
         <f t="shared" ref="AD17:AD20" si="13">(K17)*(AC17/1000)*(1.183859)</f>
         <v>9.3039191705921592E-2</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AE17">
         <f>SUM(O17,R17,U17,X17,AA17,AD17)</f>
         <v>197.69656096393518</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AF17">
         <f>(((M17)*($N$5)*(G17+273.15))*0.001)/($N$4)</f>
         <v>8.1154396565675135E-2</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AG17">
         <f>((((P17)*($N$5)*(G17+273.15))*0.001))/($N$4)</f>
         <v>0.29514572645727044</v>
       </c>
-      <c r="AH17" s="3">
+      <c r="AH17">
         <f>(((S17)*(0.0821)*(G17+273.15))*0.001)</f>
         <v>1.3668108895271551</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AI17">
         <f>((((V17)*($N$5)*(G17+273.15))*0.001))/($N$4)</f>
         <v>0.19715858782881054</v>
       </c>
-      <c r="AJ17" s="3">
+      <c r="AJ17">
         <f>((((Y17)*($N$5)*(G17+273.15))*0.001))/($N$4)</f>
         <v>7.6553058769965671E-5</v>
       </c>
-      <c r="AK17" s="3">
+      <c r="AK17">
         <f>((((AB17)*($N$5)*(G17+273.15))*0.001))/($N$4)</f>
         <v>8.7677812174782031E-4</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AL17">
         <f>SUM(AF17,AG17,AH17,AI17,AJ17,AK17)</f>
         <v>1.9412229315594289</v>
       </c>
-      <c r="AM17" s="3">
+      <c r="AM17">
         <f>AL17/$P$3</f>
         <v>0.87958259026716068</v>
       </c>
-      <c r="AN17" s="3">
+      <c r="AN17">
         <f>((1)*(44.01/1000))/((0.0821)*(G17+273.15)*(0.001))</f>
         <v>0.70589932350929874</v>
       </c>
-      <c r="AO17" s="3">
+      <c r="AO17">
         <f>((1)*(18.0152/1000))/((0.0821)*(G17+273.15)*(0.001))</f>
         <v>0.28895518047908925</v>
       </c>
-      <c r="AP17" s="3">
+      <c r="AP17">
         <f>((1)*(28.0134/1000))/((0.0821)*(G17+273.15)*(0.001))</f>
         <v>0.44932152031800476</v>
       </c>
-      <c r="AQ17" s="3">
+      <c r="AQ17">
         <f>((1)*(31.99/1000))/((0.0821)*(G17+273.15)*(0.001))</f>
         <v>0.51310427991507535</v>
       </c>
-      <c r="AR17" s="3">
+      <c r="AR17">
         <f>((1)*(28.01/1000))/((0.0821)*(G17+273.15)*(0.001))</f>
         <v>0.44926698594627262</v>
       </c>
-      <c r="AS17" s="3">
+      <c r="AS17">
         <f>((1)*(30.0061/1000))/((0.0821)*(G17+273.15)*(0.001))</f>
         <v>0.48128347400936988</v>
       </c>
-      <c r="AT17" s="3">
+      <c r="AT17">
         <f>(($AU$3)*($AX$3/((0.555*(G17+273.15))+$AW$3))*(((G17+273.15)/$AV$3)^(3/2)))*0.001</f>
         <v>3.756642569956246E-5</v>
       </c>
-      <c r="AU17" s="3">
+      <c r="AU17">
         <f>(($AU$5)*($AX$5/((0.555*(G17+273.15))+$AW$5))*(((G17+273.15)/$AV$5)^(3/2)))*0.001</f>
         <v>2.9073871645590248E-3</v>
       </c>
-      <c r="AV17" s="3">
+      <c r="AV17">
         <f>(($AU$7)*($AX$7/((0.555*(G17+273.15))+$AW$7))*(((G17+273.15)/$AV$7)^(3/2)))*0.001</f>
         <v>3.7319757689413313E-5</v>
       </c>
-      <c r="AW17" s="3">
+      <c r="AW17">
         <f>(($AU$8)*($AX$8/((0.555*(G17+273.15))+$AW$8))*(((G17+273.15)/$AV$8)^(3/2)))*0.001</f>
         <v>4.4569464417418523E-5</v>
       </c>
-      <c r="AX17" s="3">
+      <c r="AX17">
         <f>(($AU$4)*($AX$4/((0.555*(G17+273.15))+$AW$4))*(((G17+273.15)/$AV$4)^(3/2)))*0.001</f>
         <v>3.7910778012374043E-5</v>
       </c>
-      <c r="AY17" s="3">
+      <c r="AY17">
         <f>(($AU$6)*($AX$6/((0.555*(G17+273.15))+$AW$6))*(((G17+273.15)/$AV$6)^(3/2)))*0.001</f>
         <v>4.5192199257317305E-4</v>
       </c>
-      <c r="AZ17" s="3">
+      <c r="AZ17">
         <f>SUM(AN17:AS17)</f>
         <v>2.8878307641771106</v>
       </c>
-      <c r="BA17" s="3">
+      <c r="BA17">
         <f>SUM(AT17:AY17)</f>
         <v>3.5166755829509665E-3</v>
       </c>
-      <c r="BB17" s="3">
+      <c r="BB17">
         <f>(AZ17*AM17*0.4064)/BA17</f>
         <v>293.54166724283931</v>
       </c>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A18" s="39">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A18" s="38">
         <f t="shared" ref="A18:A20" si="14">C18+D18</f>
         <v>45416.474872685183</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <f t="shared" ref="C18:C20" si="15">DATE(RIGHT(B18,4),MID(B18,4,2),LEFT(B18,2))</f>
         <v>45416</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <v>0.47487268518518516</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>101.42400000000001</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>486.25700000000001</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <f>(F18+E18)/3600</f>
         <v>2.8173333333333335E-2</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18">
         <f t="shared" ref="I18:I20" si="16">((101.325)*(H18)*1000)/((8.314)*(273.15))</f>
         <v>1.2570241488534568</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
         <f t="shared" ref="J18:J20" si="17">(G18+273.15)-($J$7+273.15)</f>
         <v>186.25699999999995</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
         <f t="shared" ref="K18:K20" si="18">G18-$J$7</f>
         <v>186.25700000000001</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18">
         <f t="shared" ref="L18:L20" si="19">(K18)*2.22*(K18)</f>
         <v>77015.507508780021</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18">
         <f t="shared" si="4"/>
         <v>1.3016776558853769</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18">
         <f t="shared" ref="N18:N20" si="20">M18*(44.01)</f>
         <v>57.286833635515436</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18">
         <f t="shared" ref="O18:O20" si="21">(K18)*(N18/1000)*(1.2135)</f>
         <v>12.948134522868315</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18">
         <f t="shared" si="5"/>
         <v>4.7339961064041747</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18">
         <f t="shared" ref="Q18:Q20" si="22">(P18)*(18.01528)</f>
         <v>85.284265375781004</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18">
         <f t="shared" si="6"/>
         <v>31.706043666529297</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18">
         <f t="shared" si="7"/>
         <v>21.922992099122055</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18">
         <f t="shared" ref="T18:T20" si="23">(S18)*(28.0134)</f>
         <v>614.13754686954576</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18">
         <f t="shared" si="8"/>
         <v>132.46062896391138</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18">
         <f t="shared" si="9"/>
         <v>3.1623293290708032</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18">
         <f t="shared" ref="W18:W20" si="24">(V18)*(31.999)</f>
         <v>101.19137620093663</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18">
         <f t="shared" si="10"/>
         <v>20.497765156706212</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18">
         <f t="shared" ref="Y18:Y20" si="25">(0.000976810511041857)*(I18)</f>
         <v>1.2278744012335005E-3</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18">
         <f t="shared" ref="Z18:Z20" si="26">(Y18)*(28.01)</f>
         <v>3.4392761978550353E-2</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18">
         <f t="shared" si="11"/>
         <v>7.9256186369911063E-3</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18">
         <f t="shared" si="12"/>
         <v>1.4063101181766418E-2</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC18">
         <f t="shared" ref="AC18:AC20" si="27">(AB18)*(30.0061)</f>
         <v>0.42197882037020129</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD18">
         <f t="shared" si="13"/>
         <v>9.3047184720710469E-2</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE18">
         <f t="shared" ref="AE18:AE20" si="28">SUM(O18,R18,U18,X18,AA18,AD18)</f>
         <v>197.7135451133729</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AF18">
         <f t="shared" ref="AF18:AF20" si="29">(((M18)*($N$5)*(G18+273.15))*0.001)/($N$4)</f>
         <v>8.1156106449443904E-2</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AG18">
         <f>((((P18)*($N$5)*(G18+273.15))*0.001))/($N$4)</f>
         <v>0.29515194503455577</v>
       </c>
-      <c r="AH18" s="3">
+      <c r="AH18">
         <f t="shared" ref="AH18:AH20" si="30">(((S18)*(0.0821)*(G18+273.15))*0.001)</f>
         <v>1.3668396875695765</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AI18">
         <f t="shared" ref="AI18:AI20" si="31">((((V18)*($N$5)*(G18+273.15))*0.001))/($N$4)</f>
         <v>0.19716274186461721</v>
       </c>
-      <c r="AJ18" s="3">
+      <c r="AJ18">
         <f t="shared" ref="AJ18:AJ20" si="32">((((Y18)*($N$5)*(G18+273.15))*0.001))/($N$4)</f>
         <v>7.6554671705779119E-5</v>
       </c>
-      <c r="AK18" s="3">
+      <c r="AK18">
         <f t="shared" ref="AK18:AK20" si="33">((((AB18)*($N$5)*(G18+273.15))*0.001))/($N$4)</f>
         <v>8.7679659503753259E-4</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AL18">
         <f t="shared" ref="AL18:AL20" si="34">SUM(AF18,AG18,AH18,AI18,AJ18,AK18)</f>
         <v>1.9412638321849367</v>
       </c>
-      <c r="AM18" s="3">
+      <c r="AM18">
         <f t="shared" ref="AM18:AM20" si="35">AL18/$P$3</f>
         <v>0.87960112264566437</v>
       </c>
-      <c r="AN18" s="3">
+      <c r="AN18">
         <f t="shared" ref="AN18:AN20" si="36">((1)*(44.01/1000))/((0.0821)*(G18+273.15)*(0.001))</f>
         <v>0.70588445086633378</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AO18">
         <f t="shared" ref="AO18:AO20" si="37">((1)*(18.0152/1000))/((0.0821)*(G18+273.15)*(0.001))</f>
         <v>0.28894909246187628</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AP18">
         <f t="shared" ref="AP18:AP20" si="38">((1)*(28.0134/1000))/((0.0821)*(G18+273.15)*(0.001))</f>
         <v>0.44931205353099196</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AQ18">
         <f t="shared" ref="AQ18:AQ20" si="39">((1)*(31.99/1000))/((0.0821)*(G18+273.15)*(0.001))</f>
         <v>0.51309346928457211</v>
       </c>
-      <c r="AR18" s="3">
+      <c r="AR18">
         <f t="shared" ref="AR18:AR20" si="40">((1)*(28.01/1000))/((0.0821)*(G18+273.15)*(0.001))</f>
         <v>0.44925752030824839</v>
       </c>
-      <c r="AS18" s="3">
+      <c r="AS18">
         <f t="shared" ref="AS18:AS20" si="41">((1)*(30.0061/1000))/((0.0821)*(G18+273.15)*(0.001))</f>
         <v>0.48127333381368553</v>
       </c>
-      <c r="AT18" s="3">
+      <c r="AT18">
         <f t="shared" ref="AT18:AT20" si="42">(($AU$3)*($AX$3/((0.555*(G18+273.15))+$AW$3))*(((G18+273.15)/$AV$3)^(3/2)))*0.001</f>
         <v>3.7567108634169126E-5</v>
       </c>
-      <c r="AU18" s="3">
+      <c r="AU18">
         <f t="shared" ref="AU18:AU20" si="43">(($AU$5)*($AX$5/((0.555*(G18+273.15))+$AW$5))*(((G18+273.15)/$AV$5)^(3/2)))*0.001</f>
         <v>2.9074432650972285E-3</v>
       </c>
-      <c r="AV18" s="3">
+      <c r="AV18">
         <f t="shared" ref="AV18:AV20" si="44">(($AU$7)*($AX$7/((0.555*(G18+273.15))+$AW$7))*(((G18+273.15)/$AV$7)^(3/2)))*0.001</f>
         <v>3.7320314759331773E-5</v>
       </c>
-      <c r="AW18" s="3">
+      <c r="AW18">
         <f t="shared" ref="AW18:AW20" si="45">(($AU$8)*($AX$8/((0.555*(G18+273.15))+$AW$8))*(((G18+273.15)/$AV$8)^(3/2)))*0.001</f>
         <v>4.4570151387063111E-5</v>
       </c>
-      <c r="AX18" s="3">
+      <c r="AX18">
         <f t="shared" ref="AX18:AX20" si="46">(($AU$4)*($AX$4/((0.555*(G18+273.15))+$AW$4))*(((G18+273.15)/$AV$4)^(3/2)))*0.001</f>
         <v>3.7911352108379871E-5</v>
       </c>
-      <c r="AY18" s="3">
+      <c r="AY18">
         <f t="shared" ref="AY18:AY20" si="47">(($AU$6)*($AX$6/((0.555*(G18+273.15))+$AW$6))*(((G18+273.15)/$AV$6)^(3/2)))*0.001</f>
         <v>4.5192949020565656E-4</v>
       </c>
-      <c r="AZ18" s="3">
+      <c r="AZ18">
         <f t="shared" ref="AZ18:AZ20" si="48">SUM(AN18:AS18)</f>
         <v>2.8877699202657081</v>
       </c>
-      <c r="BA18" s="3">
+      <c r="BA18">
         <f t="shared" ref="BA18:BA20" si="49">SUM(AT18:AY18)</f>
         <v>3.5167416821918289E-3</v>
       </c>
-      <c r="BB18" s="3">
+      <c r="BB18">
         <f t="shared" ref="BB18:BB20" si="50">(AZ18*AM18*0.4064)/BA18</f>
         <v>293.5361499535075</v>
       </c>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A19" s="39">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
         <f t="shared" si="14"/>
         <v>45416.474880960646</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="39">
         <f t="shared" si="15"/>
         <v>45416</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>0.47488096064814811</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>101.187</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>486.25700000000001</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <f t="shared" ref="H19:H20" si="51">(F19+E19)/3600</f>
         <v>2.8107500000000001E-2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
         <f t="shared" si="16"/>
         <v>1.2540868290546097</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19">
         <f t="shared" si="17"/>
         <v>186.25699999999995</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19">
         <f t="shared" si="18"/>
         <v>186.25700000000001</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19">
         <f t="shared" si="19"/>
         <v>77015.507508780021</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19">
         <f t="shared" si="4"/>
         <v>1.2986359931187257</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19">
         <f t="shared" si="20"/>
         <v>57.152970057155116</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19">
         <f t="shared" si="21"/>
         <v>12.917878292765778</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19">
         <f t="shared" si="5"/>
         <v>4.7229340591844062</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19">
         <f t="shared" si="22"/>
         <v>85.084979497743646</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19">
         <f t="shared" si="6"/>
         <v>31.631955360517232</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19">
         <f t="shared" si="7"/>
         <v>21.871764094631086</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19">
         <f t="shared" si="23"/>
         <v>612.70247628853849</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19">
         <f t="shared" si="8"/>
         <v>132.15110489599405</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19">
         <f t="shared" si="9"/>
         <v>3.154939834957085</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19">
         <f t="shared" si="24"/>
         <v>100.95491977879176</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19">
         <f t="shared" si="10"/>
         <v>20.449867515692851</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19">
         <f t="shared" si="25"/>
         <v>1.2250051963796954E-3</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19">
         <f t="shared" si="26"/>
         <v>3.4312395550595273E-2</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AA19">
         <f t="shared" si="11"/>
         <v>7.9070986455002708E-3</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB19">
         <f t="shared" si="12"/>
         <v>1.4030239581158292E-2</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AC19">
         <f t="shared" si="27"/>
         <v>0.42099277189619383</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AD19">
         <f t="shared" si="13"/>
         <v>9.2829759034691331E-2</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AE19">
         <f t="shared" si="28"/>
         <v>197.25154292265009</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AF19">
         <f t="shared" si="29"/>
         <v>8.0966466943720228E-2</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AG19">
         <f t="shared" ref="AG19:AG20" si="52">((((P19)*($N$5)*(G19+273.15))*0.001))/($N$4)</f>
         <v>0.29446225609531862</v>
       </c>
-      <c r="AH19" s="3">
+      <c r="AH19">
         <f t="shared" si="30"/>
         <v>1.3636457590521247</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AI19">
         <f t="shared" si="31"/>
         <v>0.19670202674963544</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AJ19">
         <f t="shared" si="32"/>
         <v>7.6375784487820177E-5</v>
       </c>
-      <c r="AK19" s="3">
+      <c r="AK19">
         <f t="shared" si="33"/>
         <v>8.7474776248287213E-4</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AL19">
         <f t="shared" si="34"/>
         <v>1.9367276323877696</v>
       </c>
-      <c r="AM19" s="3">
+      <c r="AM19">
         <f t="shared" si="35"/>
         <v>0.8775457366811289</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AN19">
         <f t="shared" si="36"/>
         <v>0.70588445086633378</v>
       </c>
-      <c r="AO19" s="3">
+      <c r="AO19">
         <f t="shared" si="37"/>
         <v>0.28894909246187628</v>
       </c>
-      <c r="AP19" s="3">
+      <c r="AP19">
         <f t="shared" si="38"/>
         <v>0.44931205353099196</v>
       </c>
-      <c r="AQ19" s="3">
+      <c r="AQ19">
         <f t="shared" si="39"/>
         <v>0.51309346928457211</v>
       </c>
-      <c r="AR19" s="3">
+      <c r="AR19">
         <f t="shared" si="40"/>
         <v>0.44925752030824839</v>
       </c>
-      <c r="AS19" s="3">
+      <c r="AS19">
         <f t="shared" si="41"/>
         <v>0.48127333381368553</v>
       </c>
-      <c r="AT19" s="3">
+      <c r="AT19">
         <f t="shared" si="42"/>
         <v>3.7567108634169126E-5</v>
       </c>
-      <c r="AU19" s="3">
+      <c r="AU19">
         <f t="shared" si="43"/>
         <v>2.9074432650972285E-3</v>
       </c>
-      <c r="AV19" s="3">
+      <c r="AV19">
         <f t="shared" si="44"/>
         <v>3.7320314759331773E-5</v>
       </c>
-      <c r="AW19" s="3">
+      <c r="AW19">
         <f t="shared" si="45"/>
         <v>4.4570151387063111E-5</v>
       </c>
-      <c r="AX19" s="3">
+      <c r="AX19">
         <f t="shared" si="46"/>
         <v>3.7911352108379871E-5</v>
       </c>
-      <c r="AY19" s="3">
+      <c r="AY19">
         <f t="shared" si="47"/>
         <v>4.5192949020565656E-4</v>
       </c>
-      <c r="AZ19" s="3">
+      <c r="AZ19">
         <f t="shared" si="48"/>
         <v>2.8877699202657081</v>
       </c>
-      <c r="BA19" s="3">
+      <c r="BA19">
         <f t="shared" si="49"/>
         <v>3.5167416821918289E-3</v>
       </c>
-      <c r="BB19" s="3">
+      <c r="BB19">
         <f t="shared" si="50"/>
         <v>292.85023668308833</v>
       </c>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A20" s="39">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A20" s="38">
         <f t="shared" si="14"/>
         <v>45416.474892534723</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="39">
         <f t="shared" si="15"/>
         <v>45416</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>0.4748925347222222</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>101.187</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>486.25700000000001</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20">
         <f t="shared" si="51"/>
         <v>2.8107500000000001E-2</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20">
         <f t="shared" si="16"/>
         <v>1.2540868290546097</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20">
         <f t="shared" si="17"/>
         <v>186.25699999999995</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20">
         <f t="shared" si="18"/>
         <v>186.25700000000001</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20">
         <f t="shared" si="19"/>
         <v>77015.507508780021</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20">
         <f t="shared" si="4"/>
         <v>1.2986359931187257</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20">
         <f t="shared" si="20"/>
         <v>57.152970057155116</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20">
         <f t="shared" si="21"/>
         <v>12.917878292765778</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20">
         <f t="shared" si="5"/>
         <v>4.7229340591844062</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20">
         <f t="shared" si="22"/>
         <v>85.084979497743646</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20">
         <f t="shared" si="6"/>
         <v>31.631955360517232</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20">
         <f t="shared" si="7"/>
         <v>21.871764094631086</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20">
         <f t="shared" si="23"/>
         <v>612.70247628853849</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20">
         <f t="shared" si="8"/>
         <v>132.15110489599405</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20">
         <f t="shared" si="9"/>
         <v>3.154939834957085</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20">
         <f t="shared" si="24"/>
         <v>100.95491977879176</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20">
         <f t="shared" si="10"/>
         <v>20.449867515692851</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20">
         <f t="shared" si="25"/>
         <v>1.2250051963796954E-3</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20">
         <f t="shared" si="26"/>
         <v>3.4312395550595273E-2</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20">
         <f t="shared" si="11"/>
         <v>7.9070986455002708E-3</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB20">
         <f t="shared" si="12"/>
         <v>1.4030239581158292E-2</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AC20">
         <f t="shared" si="27"/>
         <v>0.42099277189619383</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD20">
         <f t="shared" si="13"/>
         <v>9.2829759034691331E-2</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AE20">
         <f t="shared" si="28"/>
         <v>197.25154292265009</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AF20">
         <f t="shared" si="29"/>
         <v>8.0966466943720228E-2</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AG20">
         <f t="shared" si="52"/>
         <v>0.29446225609531862</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="AH20">
         <f t="shared" si="30"/>
         <v>1.3636457590521247</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AI20">
         <f t="shared" si="31"/>
         <v>0.19670202674963544</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AJ20">
         <f t="shared" si="32"/>
         <v>7.6375784487820177E-5</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AK20">
         <f t="shared" si="33"/>
         <v>8.7474776248287213E-4</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AL20">
         <f t="shared" si="34"/>
         <v>1.9367276323877696</v>
       </c>
-      <c r="AM20" s="3">
+      <c r="AM20">
         <f t="shared" si="35"/>
         <v>0.8775457366811289</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AN20">
         <f t="shared" si="36"/>
         <v>0.70588445086633378</v>
       </c>
-      <c r="AO20" s="3">
+      <c r="AO20">
         <f t="shared" si="37"/>
         <v>0.28894909246187628</v>
       </c>
-      <c r="AP20" s="3">
+      <c r="AP20">
         <f t="shared" si="38"/>
         <v>0.44931205353099196</v>
       </c>
-      <c r="AQ20" s="3">
+      <c r="AQ20">
         <f t="shared" si="39"/>
         <v>0.51309346928457211</v>
       </c>
-      <c r="AR20" s="3">
+      <c r="AR20">
         <f t="shared" si="40"/>
         <v>0.44925752030824839</v>
       </c>
-      <c r="AS20" s="3">
+      <c r="AS20">
         <f t="shared" si="41"/>
         <v>0.48127333381368553</v>
       </c>
-      <c r="AT20" s="3">
+      <c r="AT20">
         <f t="shared" si="42"/>
         <v>3.7567108634169126E-5</v>
       </c>
-      <c r="AU20" s="3">
+      <c r="AU20">
         <f t="shared" si="43"/>
         <v>2.9074432650972285E-3</v>
       </c>
-      <c r="AV20" s="3">
+      <c r="AV20">
         <f t="shared" si="44"/>
         <v>3.7320314759331773E-5</v>
       </c>
-      <c r="AW20" s="3">
+      <c r="AW20">
         <f t="shared" si="45"/>
         <v>4.4570151387063111E-5</v>
       </c>
-      <c r="AX20" s="3">
+      <c r="AX20">
         <f t="shared" si="46"/>
         <v>3.7911352108379871E-5</v>
       </c>
-      <c r="AY20" s="3">
+      <c r="AY20">
         <f t="shared" si="47"/>
         <v>4.5192949020565656E-4</v>
       </c>
-      <c r="AZ20" s="3">
+      <c r="AZ20">
         <f t="shared" si="48"/>
         <v>2.8877699202657081</v>
       </c>
-      <c r="BA20" s="3">
+      <c r="BA20">
         <f t="shared" si="49"/>
         <v>3.5167416821918289E-3</v>
       </c>
-      <c r="BB20" s="3">
+      <c r="BB20">
         <f t="shared" si="50"/>
         <v>292.85023668308833</v>
       </c>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>